--- a/Data/Excel/Proto/Item.xlsx
+++ b/Data/Excel/Proto/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB699D0-2995-45AF-86F9-AFC07D823A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD3F58-519A-4D14-B0F7-107DCE5E0533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -157,6 +157,46 @@
   <si>
     <t>enum:EItemType</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_NAME_11001</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_11101</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_11102</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_11103</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_11104</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_12001</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_13001</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_19001</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_19002</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_19003</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_19004</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_19005</t>
   </si>
 </sst>
 </file>
@@ -1090,20 +1130,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3972A4-1AE7-47B0-9FC5-59A1EBD4A86B}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="1" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1111,28 +1151,31 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1152,392 +1195,434 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>10000+E4*1000+F4</f>
+        <f>10000+F4*1000+G4</f>
         <v>11001</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f>A4</f>
         <v>11001</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>10000+E5*1000+F5</f>
+        <f>10000+F5*1000+G5</f>
         <v>11101</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D11" si="0">A5</f>
+      <c r="E5">
+        <f>A5</f>
         <v>11101</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>101</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6" si="1">10000+E6*1000+F6</f>
+        <f>10000+F6*1000+G6</f>
         <v>11102</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
-        <f t="shared" ref="D6" si="2">A6</f>
+      <c r="E6">
+        <f>A6</f>
         <v>11102</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>102</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7" si="3">10000+E7*1000+F7</f>
+        <f>10000+F7*1000+G7</f>
         <v>11103</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
-        <f t="shared" ref="D7" si="4">A7</f>
+      <c r="E7">
+        <f>A7</f>
         <v>11103</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>103</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ref="A8" si="5">10000+E8*1000+F8</f>
+        <f>10000+F8*1000+G8</f>
         <v>11104</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
-        <f t="shared" ref="D8" si="6">A8</f>
+      <c r="E8">
+        <f>A8</f>
         <v>11104</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>104</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ref="A9:A10" si="7">10000+E9*1000+F9</f>
+        <f>10000+F9*1000+G9</f>
         <v>12001</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
+      <c r="E9">
+        <f>A9</f>
         <v>12001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="7"/>
+        <f>10000+F10*1000+G10</f>
         <v>13001</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
+      <c r="E10">
+        <f>A10</f>
         <v>13001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>30</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>10000+E11*1000+F11</f>
+        <f>10000+F11*1000+G11</f>
         <v>19001</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="E11">
+        <f>A11</f>
         <v>19001</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>10000+E12*1000+F12</f>
+        <f>10000+F12*1000+G12</f>
         <v>19002</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D15" si="8">A12</f>
+      <c r="E12">
+        <f>A12</f>
         <v>19002</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>9</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>10000+E13*1000+F13</f>
+        <f>10000+F13*1000+G13</f>
         <v>19003</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="8"/>
+      <c r="E13">
+        <f t="shared" ref="E13:E15" si="0">A13</f>
         <v>19003</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>9</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>31</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>10000+E14*1000+F14</f>
+        <f>10000+F14*1000+G14</f>
         <v>19004</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="8"/>
+      <c r="E14">
+        <f t="shared" si="0"/>
         <v>19004</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>9</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>31</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>10000+E15*1000+F15</f>
+        <f>10000+F15*1000+G15</f>
         <v>19005</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="8"/>
+      <c r="E15">
+        <f t="shared" si="0"/>
         <v>19005</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>9</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>31</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>10</v>
       </c>
     </row>

--- a/Data/Excel/Proto/Item.xlsx
+++ b/Data/Excel/Proto/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD3F58-519A-4D14-B0F7-107DCE5E0533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D80E06A-F229-4DE7-A29E-70815D6DEAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
+    <workbookView xWindow="-2025" yWindow="1965" windowWidth="20310" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>ITEM_NAME_19005</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon1#Icon1_5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1130,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3972A4-1AE7-47B0-9FC5-59A1EBD4A86B}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K5" sqref="K5:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1155,7 @@
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1186,11 @@
       <c r="J1" t="s">
         <v>28</v>
       </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1206,8 +1221,11 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1218,9 +1236,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>10000+F4*1000+G4</f>
+        <f t="shared" ref="A4:A15" si="0">10000+F4*1000+G4</f>
         <v>11001</v>
       </c>
       <c r="B4" t="s">
@@ -1233,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <f>A4</f>
+        <f t="shared" ref="E4:E12" si="1">A4</f>
         <v>11001</v>
       </c>
       <c r="F4">
@@ -1251,10 +1269,13 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>10000+F5*1000+G5</f>
+        <f t="shared" si="0"/>
         <v>11101</v>
       </c>
       <c r="B5" t="s">
@@ -1267,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <f>A5</f>
+        <f t="shared" si="1"/>
         <v>11101</v>
       </c>
       <c r="F5">
@@ -1285,10 +1306,13 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>10000+F6*1000+G6</f>
+        <f t="shared" si="0"/>
         <v>11102</v>
       </c>
       <c r="B6" t="s">
@@ -1301,7 +1325,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v>11102</v>
       </c>
       <c r="F6">
@@ -1319,10 +1343,13 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>10000+F7*1000+G7</f>
+        <f t="shared" si="0"/>
         <v>11103</v>
       </c>
       <c r="B7" t="s">
@@ -1335,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <f>A7</f>
+        <f t="shared" si="1"/>
         <v>11103</v>
       </c>
       <c r="F7">
@@ -1353,10 +1380,13 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>10000+F8*1000+G8</f>
+        <f t="shared" si="0"/>
         <v>11104</v>
       </c>
       <c r="B8" t="s">
@@ -1369,7 +1399,7 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <f>A8</f>
+        <f t="shared" si="1"/>
         <v>11104</v>
       </c>
       <c r="F8">
@@ -1387,10 +1417,13 @@
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>10000+F9*1000+G9</f>
+        <f t="shared" si="0"/>
         <v>12001</v>
       </c>
       <c r="B9" t="s">
@@ -1403,7 +1436,7 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <f>A9</f>
+        <f t="shared" si="1"/>
         <v>12001</v>
       </c>
       <c r="F9">
@@ -1421,10 +1454,13 @@
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>10000+F10*1000+G10</f>
+        <f t="shared" si="0"/>
         <v>13001</v>
       </c>
       <c r="B10" t="s">
@@ -1437,7 +1473,7 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <f>A10</f>
+        <f t="shared" si="1"/>
         <v>13001</v>
       </c>
       <c r="F10">
@@ -1455,10 +1491,13 @@
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>10000+F11*1000+G11</f>
+        <f t="shared" si="0"/>
         <v>19001</v>
       </c>
       <c r="B11" t="s">
@@ -1471,7 +1510,7 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <f>A11</f>
+        <f t="shared" si="1"/>
         <v>19001</v>
       </c>
       <c r="F11">
@@ -1489,10 +1528,13 @@
       <c r="J11">
         <v>10</v>
       </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>10000+F12*1000+G12</f>
+        <f t="shared" si="0"/>
         <v>19002</v>
       </c>
       <c r="B12" t="s">
@@ -1505,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <f>A12</f>
+        <f t="shared" si="1"/>
         <v>19002</v>
       </c>
       <c r="F12">
@@ -1523,10 +1565,13 @@
       <c r="J12">
         <v>10</v>
       </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>10000+F13*1000+G13</f>
+        <f t="shared" si="0"/>
         <v>19003</v>
       </c>
       <c r="B13" t="s">
@@ -1539,7 +1584,7 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E15" si="0">A13</f>
+        <f t="shared" ref="E13:E15" si="2">A13</f>
         <v>19003</v>
       </c>
       <c r="F13">
@@ -1557,10 +1602,13 @@
       <c r="J13">
         <v>10</v>
       </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>10000+F14*1000+G14</f>
+        <f t="shared" si="0"/>
         <v>19004</v>
       </c>
       <c r="B14" t="s">
@@ -1573,7 +1621,7 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19004</v>
       </c>
       <c r="F14">
@@ -1591,10 +1639,13 @@
       <c r="J14">
         <v>10</v>
       </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>10000+F15*1000+G15</f>
+        <f t="shared" si="0"/>
         <v>19005</v>
       </c>
       <c r="B15" t="s">
@@ -1607,7 +1658,7 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19005</v>
       </c>
       <c r="F15">
@@ -1624,6 +1675,9 @@
       </c>
       <c r="J15">
         <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
